--- a/r5-core-Profiles-4-Organization-Practitioner/StructureDefinition-at-core-practitionerRole.xlsx
+++ b/r5-core-Profiles-4-Organization-Practitioner/StructureDefinition-at-core-practitionerRole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="256">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T14:15:44+00:00</t>
+    <t>2024-02-17T14:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -715,17 +715,23 @@
     <t>PractitionerRole.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">ExtendedContactDetail
+    <t xml:space="preserve">ExtendedContactDetail {http://hl7.at/fhir/HL7ATCoreProfiles/5.0.0/StructureDefinition/at-core-extendedContactDetail}
 </t>
   </si>
   <si>
-    <t>Official contact details relating to this PractitionerRole</t>
-  </si>
-  <si>
-    <t>The contact details of communication devices available relevant to the specific PractitionerRole. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
+    <t>Contact information</t>
+  </si>
+  <si>
+    <t>Specifies contact information for a specific purpose over a period of time, might be handled/monitored by a specific named person or organization.</t>
+  </si>
+  <si>
+    <t>This datatype may be sparsely populated, i.e. only contain a purpose and phone number or address, but other cases could be completed filled out.</t>
   </si>
   <si>
     <t>Often practitioners have a dedicated line for each location (or service) that they work at, and need to be able to define separate contact details for each of these. Sometimes these also include a named person/organization that handles contact for specific purposes, such as a receptionist, or accounts clerk etc.</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>PractitionerRole.characteristic</t>
@@ -809,9 +815,6 @@
   <si>
     <t>Organizations have multiple systems that provide various services and may also be different for practitioners too.
 So the endpoint satisfies the need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1138,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.5390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.6875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3432,9 +3435,11 @@
       <c r="M20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3504,7 +3509,7 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
@@ -3515,10 +3520,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3544,13 +3549,13 @@
         <v>191</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3576,13 +3581,13 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -3600,7 +3605,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3621,7 +3626,7 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -3632,10 +3637,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3661,16 +3666,16 @@
         <v>191</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3719,7 +3724,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3740,7 +3745,7 @@
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
@@ -3751,10 +3756,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3777,16 +3782,16 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3836,7 +3841,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3857,7 +3862,7 @@
         <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>76</v>
@@ -3868,10 +3873,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3894,17 +3899,17 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -3953,7 +3958,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3974,7 +3979,7 @@
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>76</v>
